--- a/tests/data/Reader/XLSX/issue.3534.xlsx
+++ b/tests/data/Reader/XLSX/issue.3534.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\issue3534\tests\data\Reader\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6676C585-4C10-423D-B478-734511DF8AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3533373E-FAEC-4710-AF7B-CD71B2C2B500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FA26861A-FA19-4698-BA70-270F0B75C9E4}"/>
   </bookViews>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -99,6 +95,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -410,7 +411,7 @@
   <dimension ref="A4:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -419,7 +420,8 @@
     <col min="3" max="3" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B4"/>
       <c r="C4" s="3"/>
     </row>
   </sheetData>
